--- a/data1.xlsx
+++ b/data1.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="510" yWindow="645" windowWidth="14055" windowHeight="4305"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -58,9 +61,6 @@
     <t>Compiler Design</t>
   </si>
   <si>
-    <t>Parallel Programming</t>
-  </si>
-  <si>
     <t>DBMS</t>
   </si>
   <si>
@@ -70,9 +70,6 @@
     <t>Digital marketing</t>
   </si>
   <si>
-    <t>Applications developer</t>
-  </si>
-  <si>
     <t>Data analyst</t>
   </si>
   <si>
@@ -116,15 +113,21 @@
   </si>
   <si>
     <t>AI Researcher</t>
+  </si>
+  <si>
+    <t>Game Designer</t>
+  </si>
+  <si>
+    <t>Game Design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -134,76 +137,361 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.71"/>
-    <col customWidth="1" min="2" max="2" width="33.71"/>
-    <col customWidth="1" min="3" max="3" width="13.71"/>
-    <col customWidth="1" min="4" max="4" width="17.71"/>
-    <col customWidth="1" min="5" max="5" width="15.43"/>
-    <col customWidth="1" min="6" max="6" width="11.86"/>
-    <col customWidth="1" min="7" max="7" width="25.57"/>
-    <col customWidth="1" min="8" max="8" width="9.71"/>
-    <col customWidth="1" min="9" max="9" width="16.29"/>
-    <col customWidth="1" min="10" max="10" width="2.71"/>
-    <col customWidth="1" min="11" max="11" width="32.86"/>
-    <col customWidth="1" min="12" max="12" width="11.43"/>
-    <col customWidth="1" min="13" max="13" width="16.71"/>
-    <col customWidth="1" min="14" max="14" width="30.29"/>
-    <col customWidth="1" min="15" max="15" width="15.29"/>
-    <col customWidth="1" min="16" max="16" width="14.29"/>
-    <col customWidth="1" min="17" max="17" width="18.43"/>
-    <col customWidth="1" min="18" max="18" width="5.86"/>
-    <col customWidth="1" min="19" max="19" width="13.57"/>
-    <col customWidth="1" min="20" max="20" width="16.29"/>
-    <col customWidth="1" min="21" max="26" width="8.71"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
+    <col min="22" max="23" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="B1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B1" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -227,1037 +515,1037 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="T1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
+    <row r="4" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
-        <v>0.0</v>
-      </c>
-      <c r="C2">
-        <v>1.0</v>
-      </c>
-      <c r="D2">
-        <v>1.0</v>
-      </c>
-      <c r="E2">
-        <v>0.0</v>
-      </c>
-      <c r="F2">
-        <v>0.0</v>
-      </c>
-      <c r="G2">
-        <v>1.0</v>
-      </c>
-      <c r="H2">
-        <v>1.0</v>
-      </c>
-      <c r="I2">
-        <v>0.0</v>
-      </c>
-      <c r="J2">
-        <v>0.0</v>
-      </c>
-      <c r="K2">
-        <v>0.0</v>
-      </c>
-      <c r="L2">
-        <v>0.0</v>
-      </c>
-      <c r="M2">
-        <v>0.0</v>
-      </c>
-      <c r="N2">
-        <v>1.0</v>
-      </c>
-      <c r="O2">
-        <v>0.0</v>
-      </c>
-      <c r="P2">
-        <v>0.0</v>
-      </c>
-      <c r="Q2">
-        <v>0.0</v>
-      </c>
-      <c r="R2">
-        <v>1.0</v>
-      </c>
-      <c r="S2">
-        <v>0.0</v>
-      </c>
-      <c r="T2">
-        <v>0.0</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
+    <row r="5" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B3">
-        <v>0.0</v>
-      </c>
-      <c r="C3">
-        <v>1.0</v>
-      </c>
-      <c r="D3">
-        <v>0.0</v>
-      </c>
-      <c r="E3">
-        <v>1.0</v>
-      </c>
-      <c r="F3">
-        <v>1.0</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-      <c r="H3">
-        <v>0.0</v>
-      </c>
-      <c r="I3">
-        <v>0.0</v>
-      </c>
-      <c r="J3">
-        <v>0.0</v>
-      </c>
-      <c r="K3">
-        <v>0.0</v>
-      </c>
-      <c r="L3">
-        <v>1.0</v>
-      </c>
-      <c r="M3">
-        <v>0.0</v>
-      </c>
-      <c r="N3">
-        <v>1.0</v>
-      </c>
-      <c r="O3">
-        <v>0.0</v>
-      </c>
-      <c r="P3">
-        <v>0.0</v>
-      </c>
-      <c r="Q3">
-        <v>0.0</v>
-      </c>
-      <c r="R3">
-        <v>1.0</v>
-      </c>
-      <c r="S3">
-        <v>1.0</v>
-      </c>
-      <c r="T3">
-        <v>0.0</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
+    <row r="6" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>1.0</v>
-      </c>
-      <c r="C4">
-        <v>1.0</v>
-      </c>
-      <c r="D4">
-        <v>0.0</v>
-      </c>
-      <c r="E4">
-        <v>0.0</v>
-      </c>
-      <c r="F4">
-        <v>1.0</v>
-      </c>
-      <c r="G4">
-        <v>1.0</v>
-      </c>
-      <c r="H4">
-        <v>1.0</v>
-      </c>
-      <c r="I4">
-        <v>0.0</v>
-      </c>
-      <c r="J4">
-        <v>0.0</v>
-      </c>
-      <c r="K4">
-        <v>0.0</v>
-      </c>
-      <c r="L4">
-        <v>0.0</v>
-      </c>
-      <c r="M4">
-        <v>0.0</v>
-      </c>
-      <c r="N4">
-        <v>1.0</v>
-      </c>
-      <c r="O4">
-        <v>1.0</v>
-      </c>
-      <c r="P4">
-        <v>0.0</v>
-      </c>
-      <c r="Q4">
-        <v>0.0</v>
-      </c>
-      <c r="R4">
-        <v>1.0</v>
-      </c>
-      <c r="S4">
-        <v>0.0</v>
-      </c>
-      <c r="T4">
-        <v>0.0</v>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
+    <row r="7" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B5">
-        <v>0.0</v>
-      </c>
-      <c r="C5">
-        <v>1.0</v>
-      </c>
-      <c r="D5">
-        <v>1.0</v>
-      </c>
-      <c r="E5">
-        <v>0.0</v>
-      </c>
-      <c r="F5">
-        <v>0.0</v>
-      </c>
-      <c r="G5">
-        <v>1.0</v>
-      </c>
-      <c r="H5">
-        <v>1.0</v>
-      </c>
-      <c r="I5">
-        <v>0.0</v>
-      </c>
-      <c r="J5">
-        <v>0.0</v>
-      </c>
-      <c r="K5">
-        <v>1.0</v>
-      </c>
-      <c r="L5">
-        <v>0.0</v>
-      </c>
-      <c r="M5">
-        <v>1.0</v>
-      </c>
-      <c r="N5">
-        <v>1.0</v>
-      </c>
-      <c r="O5">
-        <v>1.0</v>
-      </c>
-      <c r="P5">
-        <v>0.0</v>
-      </c>
-      <c r="Q5">
-        <v>1.0</v>
-      </c>
-      <c r="R5">
-        <v>1.0</v>
-      </c>
-      <c r="S5">
-        <v>0.0</v>
-      </c>
-      <c r="T5">
-        <v>0.0</v>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
+    <row r="8" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
-        <v>0.0</v>
-      </c>
-      <c r="C6">
-        <v>1.0</v>
-      </c>
-      <c r="D6">
-        <v>1.0</v>
-      </c>
-      <c r="E6">
-        <v>0.0</v>
-      </c>
-      <c r="F6">
-        <v>0.0</v>
-      </c>
-      <c r="G6">
-        <v>1.0</v>
-      </c>
-      <c r="H6">
-        <v>1.0</v>
-      </c>
-      <c r="I6">
-        <v>0.0</v>
-      </c>
-      <c r="J6">
-        <v>0.0</v>
-      </c>
-      <c r="K6">
-        <v>0.0</v>
-      </c>
-      <c r="L6">
-        <v>0.0</v>
-      </c>
-      <c r="M6">
-        <v>0.0</v>
-      </c>
-      <c r="N6">
-        <v>1.0</v>
-      </c>
-      <c r="O6">
-        <v>0.0</v>
-      </c>
-      <c r="P6">
-        <v>0.0</v>
-      </c>
-      <c r="Q6">
-        <v>1.0</v>
-      </c>
-      <c r="R6">
-        <v>1.0</v>
-      </c>
-      <c r="S6">
-        <v>0.0</v>
-      </c>
-      <c r="T6">
-        <v>0.0</v>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7">
-        <v>0.0</v>
-      </c>
-      <c r="C7">
-        <v>1.0</v>
-      </c>
-      <c r="D7">
-        <v>0.0</v>
-      </c>
-      <c r="E7">
-        <v>0.0</v>
-      </c>
-      <c r="F7">
-        <v>0.0</v>
-      </c>
-      <c r="G7">
-        <v>1.0</v>
-      </c>
-      <c r="H7">
-        <v>1.0</v>
-      </c>
-      <c r="I7">
-        <v>1.0</v>
-      </c>
-      <c r="J7">
-        <v>0.0</v>
-      </c>
-      <c r="K7">
-        <v>0.0</v>
-      </c>
-      <c r="L7">
-        <v>0.0</v>
-      </c>
-      <c r="M7">
-        <v>0.0</v>
-      </c>
-      <c r="N7">
-        <v>1.0</v>
-      </c>
-      <c r="O7">
-        <v>0.0</v>
-      </c>
-      <c r="P7">
-        <v>0.0</v>
-      </c>
-      <c r="Q7">
-        <v>0.0</v>
-      </c>
-      <c r="R7">
-        <v>1.0</v>
-      </c>
-      <c r="S7">
-        <v>0.0</v>
-      </c>
-      <c r="T7">
-        <v>1.0</v>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
-        <v>0.0</v>
-      </c>
-      <c r="C8">
-        <v>1.0</v>
-      </c>
-      <c r="D8">
-        <v>0.0</v>
-      </c>
-      <c r="E8">
-        <v>0.0</v>
-      </c>
-      <c r="F8">
-        <v>0.0</v>
-      </c>
-      <c r="G8">
-        <v>1.0</v>
-      </c>
-      <c r="H8">
-        <v>1.0</v>
-      </c>
-      <c r="I8">
-        <v>0.0</v>
-      </c>
-      <c r="J8">
-        <v>0.0</v>
-      </c>
-      <c r="K8">
-        <v>1.0</v>
-      </c>
-      <c r="L8">
-        <v>0.0</v>
-      </c>
-      <c r="M8">
-        <v>1.0</v>
-      </c>
-      <c r="N8">
-        <v>1.0</v>
-      </c>
-      <c r="O8">
-        <v>0.0</v>
-      </c>
-      <c r="P8">
-        <v>0.0</v>
-      </c>
-      <c r="Q8">
-        <v>1.0</v>
-      </c>
-      <c r="R8">
-        <v>1.0</v>
-      </c>
-      <c r="S8">
-        <v>0.0</v>
-      </c>
-      <c r="T8">
-        <v>0.0</v>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
+    <row r="11" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
-        <v>0.0</v>
-      </c>
-      <c r="C9">
-        <v>0.0</v>
-      </c>
-      <c r="D9">
-        <v>0.0</v>
-      </c>
-      <c r="E9">
-        <v>0.0</v>
-      </c>
-      <c r="F9">
-        <v>0.0</v>
-      </c>
-      <c r="G9">
-        <v>1.0</v>
-      </c>
-      <c r="H9">
-        <v>0.0</v>
-      </c>
-      <c r="I9">
-        <v>1.0</v>
-      </c>
-      <c r="J9">
-        <v>0.0</v>
-      </c>
-      <c r="K9">
-        <v>0.0</v>
-      </c>
-      <c r="L9">
-        <v>0.0</v>
-      </c>
-      <c r="M9">
-        <v>0.0</v>
-      </c>
-      <c r="N9">
-        <v>1.0</v>
-      </c>
-      <c r="O9">
-        <v>0.0</v>
-      </c>
-      <c r="P9">
-        <v>0.0</v>
-      </c>
-      <c r="Q9">
-        <v>0.0</v>
-      </c>
-      <c r="R9">
-        <v>0.0</v>
-      </c>
-      <c r="S9">
-        <v>0.0</v>
-      </c>
-      <c r="T9">
-        <v>1.0</v>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
-        <v>1.0</v>
-      </c>
-      <c r="C10">
-        <v>1.0</v>
-      </c>
-      <c r="D10">
-        <v>1.0</v>
-      </c>
-      <c r="E10">
-        <v>0.0</v>
-      </c>
-      <c r="F10">
-        <v>0.0</v>
-      </c>
-      <c r="G10">
-        <v>1.0</v>
-      </c>
-      <c r="H10">
-        <v>1.0</v>
-      </c>
-      <c r="I10">
-        <v>0.0</v>
-      </c>
-      <c r="J10">
-        <v>0.0</v>
-      </c>
-      <c r="K10">
-        <v>0.0</v>
-      </c>
-      <c r="L10">
-        <v>0.0</v>
-      </c>
-      <c r="M10">
-        <v>0.0</v>
-      </c>
-      <c r="N10">
-        <v>1.0</v>
-      </c>
-      <c r="O10">
-        <v>0.0</v>
-      </c>
-      <c r="P10">
-        <v>0.0</v>
-      </c>
-      <c r="Q10">
-        <v>0.0</v>
-      </c>
-      <c r="R10">
-        <v>1.0</v>
-      </c>
-      <c r="S10">
-        <v>0.0</v>
-      </c>
-      <c r="T10">
-        <v>0.0</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B11">
-        <v>1.0</v>
-      </c>
-      <c r="C11">
-        <v>1.0</v>
-      </c>
-      <c r="D11">
-        <v>1.0</v>
-      </c>
-      <c r="E11">
-        <v>0.0</v>
-      </c>
-      <c r="F11">
-        <v>0.0</v>
-      </c>
-      <c r="G11">
-        <v>1.0</v>
-      </c>
-      <c r="H11">
-        <v>1.0</v>
-      </c>
-      <c r="I11">
-        <v>0.0</v>
-      </c>
-      <c r="J11">
-        <v>0.0</v>
-      </c>
-      <c r="K11">
-        <v>0.0</v>
-      </c>
-      <c r="L11">
-        <v>0.0</v>
-      </c>
-      <c r="M11">
-        <v>0.0</v>
-      </c>
-      <c r="N11">
-        <v>1.0</v>
-      </c>
-      <c r="O11">
-        <v>1.0</v>
-      </c>
-      <c r="P11">
-        <v>1.0</v>
-      </c>
-      <c r="Q11">
-        <v>1.0</v>
-      </c>
-      <c r="R11">
-        <v>1.0</v>
-      </c>
-      <c r="S11">
-        <v>0.0</v>
-      </c>
-      <c r="T11">
-        <v>0.0</v>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B12">
-        <v>0.0</v>
-      </c>
-      <c r="C12">
-        <v>1.0</v>
-      </c>
-      <c r="D12">
-        <v>0.0</v>
-      </c>
-      <c r="E12">
-        <v>0.0</v>
-      </c>
-      <c r="F12">
-        <v>0.0</v>
-      </c>
-      <c r="G12">
-        <v>1.0</v>
-      </c>
-      <c r="H12">
-        <v>1.0</v>
-      </c>
-      <c r="I12">
-        <v>1.0</v>
-      </c>
-      <c r="J12">
-        <v>0.0</v>
-      </c>
-      <c r="K12">
-        <v>1.0</v>
-      </c>
-      <c r="L12">
-        <v>0.0</v>
-      </c>
-      <c r="M12">
-        <v>1.0</v>
-      </c>
-      <c r="N12">
-        <v>1.0</v>
-      </c>
-      <c r="O12">
-        <v>0.0</v>
-      </c>
-      <c r="P12">
-        <v>0.0</v>
-      </c>
-      <c r="Q12">
-        <v>0.0</v>
-      </c>
-      <c r="R12">
-        <v>1.0</v>
-      </c>
-      <c r="S12">
-        <v>1.0</v>
-      </c>
-      <c r="T12">
-        <v>0.0</v>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
+    <row r="15" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B13">
-        <v>0.0</v>
-      </c>
-      <c r="C13">
-        <v>1.0</v>
-      </c>
-      <c r="D13">
-        <v>0.0</v>
-      </c>
-      <c r="E13">
-        <v>0.0</v>
-      </c>
-      <c r="F13">
-        <v>0.0</v>
-      </c>
-      <c r="G13">
-        <v>1.0</v>
-      </c>
-      <c r="H13">
-        <v>1.0</v>
-      </c>
-      <c r="I13">
-        <v>1.0</v>
-      </c>
-      <c r="J13">
-        <v>0.0</v>
-      </c>
-      <c r="K13">
-        <v>0.0</v>
-      </c>
-      <c r="L13">
-        <v>0.0</v>
-      </c>
-      <c r="M13">
-        <v>1.0</v>
-      </c>
-      <c r="N13">
-        <v>1.0</v>
-      </c>
-      <c r="O13">
-        <v>0.0</v>
-      </c>
-      <c r="P13">
-        <v>0.0</v>
-      </c>
-      <c r="Q13">
-        <v>0.0</v>
-      </c>
-      <c r="R13">
-        <v>1.0</v>
-      </c>
-      <c r="S13">
-        <v>0.0</v>
-      </c>
-      <c r="T13">
-        <v>1.0</v>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
+    <row r="16" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B14">
-        <v>0.0</v>
-      </c>
-      <c r="C14">
-        <v>1.0</v>
-      </c>
-      <c r="D14">
-        <v>0.0</v>
-      </c>
-      <c r="E14">
-        <v>0.0</v>
-      </c>
-      <c r="F14">
-        <v>0.0</v>
-      </c>
-      <c r="G14">
-        <v>1.0</v>
-      </c>
-      <c r="H14">
-        <v>1.0</v>
-      </c>
-      <c r="I14">
-        <v>1.0</v>
-      </c>
-      <c r="J14">
-        <v>0.0</v>
-      </c>
-      <c r="K14">
-        <v>0.0</v>
-      </c>
-      <c r="L14">
-        <v>0.0</v>
-      </c>
-      <c r="M14">
-        <v>1.0</v>
-      </c>
-      <c r="N14">
-        <v>1.0</v>
-      </c>
-      <c r="O14">
-        <v>1.0</v>
-      </c>
-      <c r="P14">
-        <v>0.0</v>
-      </c>
-      <c r="Q14">
-        <v>0.0</v>
-      </c>
-      <c r="R14">
-        <v>1.0</v>
-      </c>
-      <c r="S14">
-        <v>0.0</v>
-      </c>
-      <c r="T14">
-        <v>1.0</v>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
+    <row r="17" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
-        <v>0.0</v>
-      </c>
-      <c r="C15">
-        <v>1.0</v>
-      </c>
-      <c r="D15">
-        <v>1.0</v>
-      </c>
-      <c r="E15">
-        <v>0.0</v>
-      </c>
-      <c r="F15">
-        <v>1.0</v>
-      </c>
-      <c r="G15">
-        <v>1.0</v>
-      </c>
-      <c r="H15">
-        <v>1.0</v>
-      </c>
-      <c r="I15">
-        <v>0.0</v>
-      </c>
-      <c r="J15">
-        <v>0.0</v>
-      </c>
-      <c r="K15">
-        <v>0.0</v>
-      </c>
-      <c r="L15">
-        <v>0.0</v>
-      </c>
-      <c r="M15">
-        <v>0.0</v>
-      </c>
-      <c r="N15">
-        <v>1.0</v>
-      </c>
-      <c r="O15">
-        <v>1.0</v>
-      </c>
-      <c r="P15">
-        <v>1.0</v>
-      </c>
-      <c r="Q15">
-        <v>1.0</v>
-      </c>
-      <c r="R15">
-        <v>1.0</v>
-      </c>
-      <c r="S15">
-        <v>1.0</v>
-      </c>
-      <c r="T15">
-        <v>0.0</v>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16">
-        <v>1.0</v>
-      </c>
-      <c r="C16">
-        <v>1.0</v>
-      </c>
-      <c r="D16">
-        <v>1.0</v>
-      </c>
-      <c r="E16">
-        <v>1.0</v>
-      </c>
-      <c r="F16">
-        <v>0.0</v>
-      </c>
-      <c r="G16">
-        <v>1.0</v>
-      </c>
-      <c r="H16">
-        <v>1.0</v>
-      </c>
-      <c r="I16">
-        <v>0.0</v>
-      </c>
-      <c r="J16">
-        <v>1.0</v>
-      </c>
-      <c r="K16">
-        <v>0.0</v>
-      </c>
-      <c r="L16">
-        <v>1.0</v>
-      </c>
-      <c r="M16">
-        <v>0.0</v>
-      </c>
-      <c r="N16">
-        <v>1.0</v>
-      </c>
-      <c r="O16">
-        <v>1.0</v>
-      </c>
-      <c r="P16">
-        <v>0.0</v>
-      </c>
-      <c r="Q16">
-        <v>0.0</v>
-      </c>
-      <c r="R16">
-        <v>1.0</v>
-      </c>
-      <c r="S16">
-        <v>1.0</v>
-      </c>
-      <c r="T16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17">
-        <v>1.0</v>
-      </c>
-      <c r="C17">
-        <v>1.0</v>
-      </c>
-      <c r="D17">
-        <v>1.0</v>
-      </c>
-      <c r="E17">
-        <v>1.0</v>
-      </c>
-      <c r="F17">
-        <v>0.0</v>
-      </c>
-      <c r="G17">
-        <v>1.0</v>
-      </c>
-      <c r="H17">
-        <v>1.0</v>
-      </c>
-      <c r="I17">
-        <v>0.0</v>
-      </c>
-      <c r="J17">
-        <v>1.0</v>
-      </c>
-      <c r="K17">
-        <v>1.0</v>
-      </c>
-      <c r="L17">
-        <v>1.0</v>
-      </c>
-      <c r="M17">
-        <v>1.0</v>
-      </c>
-      <c r="N17">
-        <v>1.0</v>
-      </c>
-      <c r="O17">
-        <v>1.0</v>
-      </c>
-      <c r="P17">
-        <v>1.0</v>
-      </c>
-      <c r="Q17">
-        <v>1.0</v>
-      </c>
-      <c r="R17">
-        <v>1.0</v>
-      </c>
-      <c r="S17">
-        <v>1.0</v>
-      </c>
-      <c r="T17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:20" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2227,9 +2515,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data1.xlsx
+++ b/data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Computer Achitecture and Organisation</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Game Design</t>
+  </si>
+  <si>
+    <t>Blockchain</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1000"/>
+  <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -480,7 +483,7 @@
     <col min="22" max="23" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25" customHeight="1">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
@@ -538,8 +541,11 @@
       <c r="T1" t="s">
         <v>2</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="14.25" customHeight="1">
+    <row r="2" spans="1:21" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -600,8 +606,11 @@
       <c r="T2">
         <v>0</v>
       </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="14.25" customHeight="1">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -662,8 +671,11 @@
       <c r="T3">
         <v>0</v>
       </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" ht="14.25" customHeight="1">
+    <row r="4" spans="1:21" ht="14.25" customHeight="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -724,8 +736,11 @@
       <c r="T4">
         <v>1</v>
       </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" ht="14.25" customHeight="1">
+    <row r="5" spans="1:21" ht="14.25" customHeight="1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -786,8 +801,11 @@
       <c r="T5">
         <v>0</v>
       </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" ht="14.25" customHeight="1">
+    <row r="6" spans="1:21" ht="14.25" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -848,8 +866,11 @@
       <c r="T6">
         <v>0</v>
       </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" ht="14.25" customHeight="1">
+    <row r="7" spans="1:21" ht="14.25" customHeight="1">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -910,8 +931,11 @@
       <c r="T7">
         <v>0</v>
       </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -972,8 +996,11 @@
       <c r="T8">
         <v>0</v>
       </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1">
+    <row r="9" spans="1:21" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1034,8 +1061,11 @@
       <c r="T9">
         <v>0</v>
       </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25" customHeight="1">
+    <row r="10" spans="1:21" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1096,8 +1126,11 @@
       <c r="T10">
         <v>1</v>
       </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" customHeight="1">
+    <row r="11" spans="1:21" ht="14.25" customHeight="1">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1158,8 +1191,11 @@
       <c r="T11">
         <v>1</v>
       </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1">
+    <row r="12" spans="1:21" ht="14.25" customHeight="1">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1220,8 +1256,11 @@
       <c r="T12">
         <v>0</v>
       </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1">
+    <row r="13" spans="1:21" ht="14.25" customHeight="1">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1282,8 +1321,11 @@
       <c r="T13">
         <v>0</v>
       </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1">
+    <row r="14" spans="1:21" ht="14.25" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1344,8 +1386,11 @@
       <c r="T14">
         <v>1</v>
       </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" ht="14.25" customHeight="1">
+    <row r="15" spans="1:21" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1406,8 +1451,11 @@
       <c r="T15">
         <v>1</v>
       </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" ht="14.25" customHeight="1">
+    <row r="16" spans="1:21" ht="14.25" customHeight="1">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1468,8 +1516,11 @@
       <c r="T16">
         <v>0</v>
       </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" ht="14.25" customHeight="1">
+    <row r="17" spans="1:21" ht="14.25" customHeight="1">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1530,22 +1581,25 @@
       <c r="T17">
         <v>0</v>
       </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:20" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:21" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
